--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6068600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6243000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5899100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4689000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4615700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4539700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4594700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4349200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4311100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4364900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4428900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4235000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4051800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6193200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5357400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5531600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5199000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4084300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4001100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3946100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3982900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3790500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3743500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3810200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3854000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3713600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3534600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>807500</v>
+      </c>
+      <c r="E10" s="3">
         <v>711200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>711400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>604700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>614600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>593600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>611800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>558700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>567600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>554700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>574900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>521400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>517200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,19 +1055,22 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E15" s="3">
         <v>5800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4700</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7018100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5988100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6179500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5798600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4629800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4542700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4489100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4289100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4262000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4314400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4347500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4188300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E18" s="3">
         <v>80500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>93800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>49100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E21" s="3">
         <v>124500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>106200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>143100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>82200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>79600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>82200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E22" s="3">
         <v>26400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>17300</v>
       </c>
       <c r="F22" s="3">
         <v>17300</v>
       </c>
       <c r="G22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H22" s="3">
         <v>16500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E23" s="3">
         <v>54300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>78500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E24" s="3">
         <v>13100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-81300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E26" s="3">
         <v>41200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E27" s="3">
         <v>41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>115400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1657,17 +1718,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>50400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E33" s="3">
         <v>41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>78000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E35" s="3">
         <v>41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>78000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E41" s="3">
         <v>12700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7500</v>
       </c>
       <c r="K41" s="3">
         <v>7500</v>
       </c>
       <c r="L41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1304400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1230100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1226900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1227300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1128500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1093200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1068800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1065600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1070300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1034900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1058600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1028500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1038000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>990100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1803100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1349400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1411200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1356900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1128300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1140900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1115500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1051900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1054400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1043400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1034000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1013300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>985100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1140400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1115600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>71700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3585900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3732600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3769700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2670600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2325200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2293500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2263100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2203500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2183600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2140000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2132800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2084900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2080500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2019700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,111 +2478,120 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1922400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1374800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1376300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>950500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>895900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>855600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>809400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>795500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>744300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>734900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>737600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>740700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>721600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>699800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2296800</v>
+      </c>
+      <c r="E49" s="3">
         <v>936100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>945400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>960100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>947200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>958400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>944400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>934300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>942900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>946900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>954300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>919700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>888500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>855800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E52" s="3">
         <v>67600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>59000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>55700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>57600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7870800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6111100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6163000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4653500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4222800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4166500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4086900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3932500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3882600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3883300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3804100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3746300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3632900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1372900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1041500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1188700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1130800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1045000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>940600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1042300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>973000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1022500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>886900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>908700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>907100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>920700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>850400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E58" s="3">
         <v>24600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>644300</v>
+      </c>
+      <c r="E59" s="3">
         <v>757000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>612800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>550200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>536900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>504100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>422800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>488600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>417000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>386200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>454500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>464500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>442600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>389200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2045300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1823100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1823000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1699300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1598800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1458200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1474700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1470000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1447100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1280100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1375200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1383300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1375100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1250700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3368500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2352900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2360000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1331800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1168000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1284600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1224000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1175800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1246300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1406100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1351800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1285900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1302500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1341700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>633800</v>
+      </c>
+      <c r="E62" s="3">
         <v>556600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>646900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>324200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>221800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>218600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>222900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>219800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>177700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>180900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>206900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>209400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>186900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6047600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4732600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4829900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3355300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2988600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2961400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2921600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2865600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2871100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2867100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2933900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2878600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2865600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2779300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>467800</v>
+      </c>
+      <c r="E72" s="3">
         <v>508000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>466800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>430700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>367500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>335200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>292100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>264800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>200900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>167200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>89200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>66600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1823200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1378500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1333100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1298200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1234200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1205100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1165300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1135300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1061400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1015500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>949400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>925500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>880700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>853600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E81" s="3">
         <v>41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>78000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E83" s="3">
         <v>43800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>42700</v>
       </c>
       <c r="F83" s="3">
         <v>42700</v>
       </c>
       <c r="G83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="H83" s="3">
         <v>39700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E89" s="3">
         <v>73600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>56900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>190500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>137400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>197000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>99700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2040800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-199600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1462300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>149700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-156800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>25300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-157400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>62400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>65400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-718700</v>
+      </c>
+      <c r="E102" s="3">
         <v>14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1062000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5774000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6068600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6243000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5899100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4689000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4615700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4539700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4594700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4349200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4311100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4364900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4428900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4235000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4051800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5134900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6193200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5357400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5531600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5199000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4084300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4001100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3946100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3982900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3790500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3743500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3810200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3854000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3713600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3534600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>639100</v>
+      </c>
+      <c r="E10" s="3">
         <v>807500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>711200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>711400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>604700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>614600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>593600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>611800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>558700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>567600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>554700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>574900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>521400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>517200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,22 +1078,25 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5999600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7018100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5988100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6179500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5798600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4629800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4542700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4489100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4289100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4262000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4314400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4347500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4188300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>80500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>50500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="E21" s="3">
         <v>74000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>106200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>143100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>99900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>92100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>82200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E22" s="3">
         <v>35200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>17300</v>
       </c>
       <c r="G22" s="3">
         <v>17300</v>
       </c>
       <c r="H22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I22" s="3">
         <v>16500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-262200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-60500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>83100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-81300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>115400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>63200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>115400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,17 +1782,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>50400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>63200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>78000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>63200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>78000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E41" s="3">
         <v>372100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>7500</v>
       </c>
       <c r="L41" s="3">
         <v>7500</v>
       </c>
       <c r="M41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1415100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1304400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1230100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1226900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1227300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1128500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1093200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1068800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1065600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1070300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1034900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1058600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1028500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1038000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>990100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1803100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1349400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1411200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1356900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1128300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1140900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1115500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1051900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1054400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1043400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1034000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1013300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>985100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E45" s="3">
         <v>106300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1140400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1115600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>71700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3453900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3585900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3732600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3769700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2670600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2325200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2293500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2263100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2203500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2183600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2140000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2132800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2084900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2080500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2019700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2481,117 +2586,126 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1920200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1922400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1374800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1376300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>950500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>895900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>855600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>809400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>795500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>744300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>734900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>737600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>740700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>721600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>699800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2271600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2296800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>936100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>945400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>960100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>947200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>958400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>944400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>934300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>942900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>946900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>954300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>919700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>888500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>855800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E52" s="3">
         <v>65700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>55700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>57600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7719700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7870800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6111100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6163000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4653500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4222800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4166500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4086900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3932500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3882600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3883300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3804100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3746300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3632900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1608000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1372900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1041500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1188700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1130800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1045000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>940600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1042300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>973000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1022500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>886900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>908700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>907100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>920700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>850400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E58" s="3">
         <v>28100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>872800</v>
+      </c>
+      <c r="E59" s="3">
         <v>644300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>757000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>612800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>550200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>536900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>504100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>422800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>488600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>417000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>386200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>454500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>464500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>442600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>389200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2618700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2045300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1823100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1823000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1699300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1598800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1458200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1474700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1470000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1447100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1280100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1375200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1383300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1375100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1250700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2435000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3368500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2352900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2360000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1331800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1168000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1284600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1224000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1175800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1246300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1406100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1351800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1285900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1302500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1341700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>655400</v>
+      </c>
+      <c r="E62" s="3">
         <v>633800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>556600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>646900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>324200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>221800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>218600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>222900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>180900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>206900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>209400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>186900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5709100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6047600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4732600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4829900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3355300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2988600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2961400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2921600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2865600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2871100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2867100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2933900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2878600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2865600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2779300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E72" s="3">
         <v>467800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>508000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>466800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>430700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>367500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>335200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>292100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>264800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>167200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>89200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>66600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2010600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1823200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1378500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1333100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1298200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1234200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1205100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1165300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1135300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1061400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1015500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>949400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>925500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>880700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>853600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>63200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>78000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E83" s="3">
         <v>99300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>42700</v>
       </c>
       <c r="G83" s="3">
         <v>42700</v>
       </c>
       <c r="H83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I83" s="3">
         <v>39700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-140200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>73600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>56900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>190500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>137400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>99700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>127500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-199600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-60100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-81200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-112300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1462300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>149700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-156800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>25300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-157400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>62400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>65400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-718700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1062000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7046800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5774000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6068600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6243000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5899100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4689000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4615700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4539700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4594700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4349200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4311100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4364900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4428900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4235000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4051800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6231300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5134900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6193200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5357400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5531600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5199000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4084300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4001100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3946100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3982900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3790500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3743500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3810200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3854000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3713600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3534600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>815500</v>
+      </c>
+      <c r="E10" s="3">
         <v>639100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>807500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>711200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>711400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>604700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>614600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>593600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>611800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>558700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>567600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>554700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>574900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>521400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>517200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,16 +1113,16 @@
         <v>7200</v>
       </c>
       <c r="E15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F15" s="3">
         <v>6700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7011000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5999600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7018100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5988100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6179500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5798600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4629800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4542700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4489100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4289100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4262000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4314400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4347500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4188300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-225600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>63500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-133700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>106200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>143100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>99900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>82200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>79600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>82200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>17300</v>
       </c>
       <c r="H22" s="3">
         <v>17300</v>
       </c>
       <c r="I22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J22" s="3">
         <v>16500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-262200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-60500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>83100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>67100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-111000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-81300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-151200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>63200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>115400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-151200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>63200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>115400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,17 +1846,17 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>50400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-151200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>63200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>33700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-151200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>63200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>33700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>417200</v>
+      </c>
+      <c r="E41" s="3">
         <v>420700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>372100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>7500</v>
       </c>
       <c r="M41" s="3">
         <v>7500</v>
       </c>
       <c r="N41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1448200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1415100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1304400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1230100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1226900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1227300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1128500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1093200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1068800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1065600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1070300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1034900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1058600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1028500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1038000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>990100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1523900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1549400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1803100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1349400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1411200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1356900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1128300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1140900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1115500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1051900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1054400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1043400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1034000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1013300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>985100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E45" s="3">
         <v>68700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1140400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1115600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>71700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3468900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3453900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3585900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3732600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3769700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2670600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2325200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2293500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2263100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2203500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2183600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2140000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2132800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2084900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2080500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2019700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,123 +2694,132 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1957600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1920200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1922400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1374800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1376300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>950500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>895900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>855600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>809400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>795500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>744300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>734900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>737600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>740700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>721600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>699800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2237000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2271600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2296800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>936100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>945400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>960100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>947200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>958400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>944400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>934300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>942900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>946900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>954300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>919700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>888500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>855800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E52" s="3">
         <v>74000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>65700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>60800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>55700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7739900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7719700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7870800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6111100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6163000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4653500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4222800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4166500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4086900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3932500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3882600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3883300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3804100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3746300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3632900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1456900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1608000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1372900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1041500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1188700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1130800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1045000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>940600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1042300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>973000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1022500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>886900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>908700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>907100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>920700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>850400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E58" s="3">
         <v>137900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>686600</v>
+      </c>
+      <c r="E59" s="3">
         <v>872800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>644300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>757000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>612800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>550200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>536900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>504100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>422800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>488600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>417000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>386200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>454500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>464500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>442600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>389200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2287900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2618700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2045300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1823100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1823000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1699300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1598800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1458200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1474700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1470000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1447100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1280100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1375200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1383300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1375100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1250700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2752200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2435000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3368500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2352900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2360000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1331800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1168000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1284600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1224000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1175800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1246300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1406100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1351800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1285900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1302500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1341700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>679100</v>
+      </c>
+      <c r="E62" s="3">
         <v>655400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>633800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>556600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>646900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>324200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>221800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>222900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>177700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>180900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>206900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>209400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>188000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>186900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5719200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5709100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6047600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4732600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4829900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3355300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2988600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2961400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2921600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2865600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2871100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2867100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2933900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2878600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2865600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2779300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>315900</v>
+      </c>
+      <c r="E72" s="3">
         <v>316600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>467800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>508000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>466800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>430700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>367500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>335200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>292100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>264800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>167200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>66600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2020700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2010600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1823200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1378500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1333100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1298200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1234200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1205100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1165300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1135300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1061400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1015500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>949400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>925500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>880700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>853600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-151200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>63200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>33700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E83" s="3">
         <v>90500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>42700</v>
       </c>
       <c r="H83" s="3">
         <v>42700</v>
       </c>
       <c r="I83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="J83" s="3">
         <v>39700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E89" s="3">
         <v>606000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-140200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>73600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>56900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>190500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>137400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>99700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>127500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-199600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-60100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-89000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-112300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1462300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>149700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-156800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-157400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>62400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>65400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>48600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-718700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1062000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6845200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7046800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5774000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6068600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6243000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5899100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4689000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4615700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4539700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4594700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4349200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4311100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4364900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4428900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4235000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4051800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6231300</v>
+        <v>6027100</v>
       </c>
       <c r="E9" s="3">
+        <v>6219400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5134900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6193200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5357400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5531600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5199000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4084300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4001100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3946100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3982900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3790500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3743500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3810200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3854000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3713600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3534600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>815500</v>
+        <v>818100</v>
       </c>
       <c r="E10" s="3">
+        <v>827400</v>
+      </c>
+      <c r="F10" s="3">
         <v>639100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>807500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>711200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>711400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>604700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>614600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>593600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>611800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>558700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>567600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>554700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>574900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>521400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>517200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>15400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,28 +1123,31 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7200</v>
+        <v>8600</v>
       </c>
       <c r="E15" s="3">
         <v>7200</v>
       </c>
       <c r="F15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G15" s="3">
         <v>6700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1161,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6784300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7011000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5999600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7018100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5988100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6179500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5798600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4629800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4542700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4489100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4289100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4262000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4314400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4347500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4188300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E18" s="3">
         <v>35800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-225600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E21" s="3">
         <v>118900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-133700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>106200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>143100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>99900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>82200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E22" s="3">
         <v>38800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>17300</v>
       </c>
       <c r="I22" s="3">
         <v>17300</v>
       </c>
       <c r="J22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K22" s="3">
         <v>16500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-262200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-60500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-111000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-81300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-151200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-151200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>63200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,17 +1909,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>50400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-151200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>63200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-151200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>63200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>416700</v>
+      </c>
+      <c r="E41" s="3">
         <v>417200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>420700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>372100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>7500</v>
       </c>
       <c r="N41" s="3">
         <v>7500</v>
       </c>
       <c r="O41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1237400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1448200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1415100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1304400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1230100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1226900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1227300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1128500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1093200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1068800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1065600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1070300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1034900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1058600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1028500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1038000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>990100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1477700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1523900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1549400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1803100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1349400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1411200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1356900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1128300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1140900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1115500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1051900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1054400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1043400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1013300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>985100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E45" s="3">
         <v>79600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>106300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1140400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1115600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>71700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3221200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3468900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3453900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3585900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3732600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3769700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2670600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2325200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2293500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2263100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2203500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2183600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2140000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2132800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2084900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2080500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2019700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2697,129 +2801,138 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1975600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1957600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1920200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1922400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1374800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1376300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>950500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>895900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>855600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>809400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>795500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>744300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>734900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>737600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>740700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>721600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>699800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2218700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2237000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2271600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2296800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>936100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>945400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>960100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>947200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>958400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>944400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>934300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>942900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>946900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>954300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>919700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>888500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>855800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E52" s="3">
         <v>76400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>65700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>60800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>55700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>57600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7493700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7739900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7719700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7870800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6111100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6163000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4653500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4222800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4166500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4086900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4000900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3932500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3882600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3883300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3804100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3746300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3632900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1025200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1456900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1608000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1372900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1041500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1188700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1130800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1045000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>940600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1042300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>973000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1022500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>886900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>908700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>907100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>920700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>850400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E58" s="3">
         <v>144400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>137900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E59" s="3">
         <v>686600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>872800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>644300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>757000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>612800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>550200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>536900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>504100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>422800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>417000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>386200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>454500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>464500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>442600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>389200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2039500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2287900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2618700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2045300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1823100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1823000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1699300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1598800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1458200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1474700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1470000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1447100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1280100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1375200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1383300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1375100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1250700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2746600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2752200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2435000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3368500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2352900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2360000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1331800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1168000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1284600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1224000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1175800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1246300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1406100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1351800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1285900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1302500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1341700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>660700</v>
+      </c>
+      <c r="E62" s="3">
         <v>679100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>655400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>633800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>556600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>646900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>324200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>221800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>222900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>177700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>180900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>206900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>209400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>188000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>186900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5446800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5719200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5709100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6047600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4732600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4829900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3355300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2988600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2961400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2921600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2865600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2871100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2867100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2933900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2878600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2865600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2779300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E72" s="3">
         <v>315900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>316600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>467800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>508000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>466800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>430700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>367500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>335200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>292100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>264800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>200900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>167200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>66600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2046900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2020700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2010600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1823200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1378500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1333100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1298200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1234200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1205100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1165300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1135300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1061400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1015500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>949400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>925500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>880700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>853600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-151200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>63200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E83" s="3">
         <v>82100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>90500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>42700</v>
       </c>
       <c r="I83" s="3">
         <v>42700</v>
       </c>
       <c r="J83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K83" s="3">
         <v>39700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-132000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>606000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-140200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>73600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>190500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>137400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>197000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>99700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>127500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-199600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-81200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-89000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-112300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E100" s="3">
         <v>163200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1462300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>149700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-156800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-74200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-157400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>62400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>65400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-718700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1062000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7202500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6845200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7046800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5774000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6068600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6243000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5899100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4689000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4615700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4539700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4594700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4349200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4311100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4364900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4428900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4235000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4051800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6360900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6027100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6219400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5134900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6193200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5357400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5531600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5199000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4084300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4001100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3946100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3982900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3790500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3743500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3810200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3854000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3713600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3534600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>841600</v>
+      </c>
+      <c r="E10" s="3">
         <v>818100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>827400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>639100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>807500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>711200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>711400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>604700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>614600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>593600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>611800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>558700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>567600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>554700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>574900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>521400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>517200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1126,31 +1146,34 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>8600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7200</v>
       </c>
       <c r="F15" s="3">
         <v>7200</v>
       </c>
       <c r="G15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H15" s="3">
         <v>6700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1187,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7179100</v>
+      </c>
+      <c r="E17" s="3">
         <v>6784300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7011000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5999600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7018100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5988100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6179500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5798600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4629800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4542700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4489100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4500900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4289100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4262000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4314400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4347500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4188300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E18" s="3">
         <v>60900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-225600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>46700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E21" s="3">
         <v>147200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>118900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-133700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>106200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>143100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>82200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E22" s="3">
         <v>38100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>17300</v>
       </c>
       <c r="J22" s="3">
         <v>17300</v>
       </c>
       <c r="K22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="L22" s="3">
         <v>16500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>24900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-262200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>83100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>67100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-111000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E26" s="3">
         <v>17600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-151200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>115400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>17600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-151200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1912,17 +1973,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>50400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>17600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-151200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>63200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>33700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>78000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>17600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-151200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>33700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>78000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E41" s="3">
         <v>416700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>417200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>420700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>372100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>7500</v>
       </c>
       <c r="O41" s="3">
         <v>7500</v>
       </c>
       <c r="P41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1432800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1237400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1448200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1415100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1304400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1230100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1226900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1227300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1128500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1093200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1068800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1065600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1070300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1034900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1058600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1028500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1038000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>990100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1477700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1523900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1549400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1803100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1349400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1411200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1356900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1128300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1140900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1115500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1051900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1054400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1043400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1034000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1013300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>985100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E45" s="3">
         <v>89400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>106300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1140400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1115600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3179100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3221200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3468900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3453900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3585900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3732600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3769700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2670600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2325200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2293500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2263100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2203500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2183600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2140000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2132800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2084900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2080500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2019700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2804,135 +2909,144 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2004700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1975600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1957600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1920200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1922400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1374800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1376300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>950500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>895900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>855600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>809400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>795500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>744300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>734900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>737600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>740700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>721600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>699800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2188100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2218700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2237000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2271600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2296800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>936100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>945400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>960100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>947200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>958400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>944400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>934300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>942900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>946900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>954300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>919700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>888500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>855800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E52" s="3">
         <v>78200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>65700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>60800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>58800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>55700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>57600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7449800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7493700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7739900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7719700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7870800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6111100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6163000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4653500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4222800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4166500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4086900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4000900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3932500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3882600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3883300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3804100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3746300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3632900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1513100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1025200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1456900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1608000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1372900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1041500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1188700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1130800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1045000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>940600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1042300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>973000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1022500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>886900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>908700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>907100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>920700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>850400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E58" s="3">
         <v>149200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>144400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>137900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>28100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>753600</v>
+      </c>
+      <c r="E59" s="3">
         <v>865100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>686600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>872800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>644300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>757000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>612800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>550200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>536900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>504100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>422800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>417000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>386200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>454500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>464500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>442600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>389200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2039500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2287900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2618700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2045300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1823100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1823000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1699300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1598800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1458200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1474700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1470000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1447100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1280100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1375200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1383300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1375100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1250700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2395400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2746600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2752200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2435000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3368500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2352900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2360000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1331800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1168000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1284600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1224000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1175800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1246300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1406100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1351800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1285900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1302500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1341700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>684700</v>
+      </c>
+      <c r="E62" s="3">
         <v>660700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>679100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>655400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>633800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>556600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>646900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>324200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>218600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>222900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>219800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>177700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>180900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>206900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>209400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>188000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>186900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5392100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5446800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5719200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5709100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6047600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4732600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4829900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3355300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2988600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2961400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2921600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2865600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2871100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2867100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2933900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2878600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2865600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2779300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>325900</v>
+      </c>
+      <c r="E72" s="3">
         <v>333500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>315900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>316600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>467800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>508000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>466800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>430700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>367500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>335200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>292100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>264800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>200900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>167200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>89200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>66600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2057700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2046900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2020700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2010600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1823200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1378500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1333100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1298200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1234200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1205100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1165300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1135300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1061400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1015500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>949400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>925500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>880700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>853600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>17600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-151200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>63200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>33700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>78000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E83" s="3">
         <v>84200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>82100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>90500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>42700</v>
       </c>
       <c r="J83" s="3">
         <v>42700</v>
       </c>
       <c r="K83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="L83" s="3">
         <v>39700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E89" s="3">
         <v>107600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-132000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>606000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-140200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>73600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>56900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>190500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>137400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>197000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>99700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>127500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>49700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-199600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-81200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-89000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-112300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-471100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-54000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>163200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1462300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>149700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-156800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>25300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-74200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-157400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>62400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>65400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-315200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-718700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1062000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10386300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9304400</v>
+      </c>
+      <c r="F8" s="3">
         <v>7202500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6845200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7046800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5774000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7000700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6068600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6243000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5899100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4689000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4615700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4539700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4594700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4349200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4311100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4364900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4428900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4235000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4051800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9244000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8229400</v>
+      </c>
+      <c r="F9" s="3">
         <v>6360900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6027100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6219400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5134900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6193200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5357400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5531600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5199000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4084300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4001100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3946100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3982900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3790500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3743500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3810200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3854000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3713600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3534600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1142300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="F10" s="3">
         <v>841600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>818100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>827400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>639100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>807500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>711200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>711400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>700100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>604700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>614600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>593600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>611800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>558700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>567600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>554700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>574900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>521400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>517200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,25 +1121,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F14" s="3">
         <v>8400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>15400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1116,11 +1156,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1149,37 +1189,43 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>5800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4700</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1190,11 +1236,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10338100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9223800</v>
+      </c>
+      <c r="F17" s="3">
         <v>7179100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6784300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7011000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5999600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7018100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5988100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6179500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5798600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4629800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4542700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4489100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4500900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4289100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4262000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4314400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4347500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4188300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4000500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>80600</v>
+      </c>
+      <c r="F18" s="3">
         <v>23400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>60900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>35800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-225600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>80500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>59200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>50600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>93800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>60100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>49100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>50500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>81400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>46700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>51300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>174100</v>
+      </c>
+      <c r="F21" s="3">
         <v>105800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>147200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>118900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-133700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>74000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>124500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>106200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>143100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>99900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>109400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>86300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>128300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>92100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>81500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>82200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>115000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>79600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>82200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F22" s="3">
         <v>37100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>38100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>38800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>35200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>26400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>17300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>16500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>15500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>15200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>15100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>14600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>14400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>14000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>13600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>24900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-262200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-60500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>54300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>46200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>83100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>56300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>35200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>78500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>34100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>36200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>67100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>32900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>38200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-111000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-20300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>64500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-81300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>13600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>26700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>12100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-151200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-40200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>41200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>36100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>63200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>32300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>43100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>28200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>34800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>115400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>22600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>40400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>20800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>22900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-151200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-40200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>41200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>36100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>63200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>32300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>43100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>34800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>115400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>22600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>40400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>20800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>22900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +2054,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1976,20 +2098,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>50400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-151200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-40200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>41200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>36100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>63200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>32300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>43100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>64400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>33700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>78000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>22600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>40400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>20800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>22900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-151200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-40200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>41200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>36100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>63200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>32300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>43100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>64400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>33700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>78000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>22600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>40400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>20800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>22900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F41" s="3">
         <v>101500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>416700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>417200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>420700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>372100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>8600</v>
       </c>
       <c r="O41" s="3">
         <v>7500</v>
       </c>
       <c r="P41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>11700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2791,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2238000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1629600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1432800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1237400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1448200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1415100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1304400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1230100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1226900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1227300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1128500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1093200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1068800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1065600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1070300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1034900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1058600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1028500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1038000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>990100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1839400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1541800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1477700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1523900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1549400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1803100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1349400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1411200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1356900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1128300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1140900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1115500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1051900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1054400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1043400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1034000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1013300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1000200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>985100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100300</v>
+      </c>
+      <c r="F45" s="3">
         <v>103000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>89400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>79600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>68700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>106300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1140400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1115600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>71700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>60700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>51900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>70200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>78500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>51600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>33300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>35000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>34700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>32800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5348800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3580400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3179100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3221200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3468900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3453900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3585900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3732600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3769700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2670600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2325200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2293500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2263100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2203500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2183600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2140000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2132800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2084900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2080500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2019700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2912,141 +3122,159 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2629300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2028300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2004700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1975600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1957600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1920200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1922400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1374800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1376300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>950500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>895900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>855600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>809400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>795500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>744300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>734900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>737600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>740700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>721600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>699800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3500600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2151100</v>
+      </c>
+      <c r="F49" s="3">
         <v>2188100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2218700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2237000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2271600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2296800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>936100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>945400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>960100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>947200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>958400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>944400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>934300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>942900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>946900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>954300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>919700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>888500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>855800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>85900</v>
+      </c>
+      <c r="F52" s="3">
         <v>77900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>78200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>76400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>74000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>65700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>67600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>71600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>72300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>54500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>59000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>70000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>67600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>61700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>60800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>58600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>58800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>55700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>57600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11581700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7845700</v>
+      </c>
+      <c r="F54" s="3">
         <v>7449800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7493700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7739900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7719700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7870800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6111100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6163000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4653500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4222800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4166500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4086900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4000900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3932500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3882600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3883300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3804100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3746300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3632900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2374100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1776500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1513100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1025200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1456900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1608000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1372900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1041500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1188700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1130800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1045000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>940600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1042300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>973000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1022500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>886900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>908700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>907100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>920700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>850400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F58" s="3">
         <v>45300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>149200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>144400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>137900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>28100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>24600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>21500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>18300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>16900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>11700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>11800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>11100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>815700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F59" s="3">
         <v>753600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>865100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>686600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>872800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>644300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>757000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>612800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>550200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>536900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>504100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>422800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>488600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>417000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>386200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>454500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>464500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>442600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>389200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3261300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2527200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2312000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2039500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2287900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2618700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2045300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1823100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1823000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1699300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1598800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1458200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1474700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1470000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1447100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1280100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1375200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1383300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1375100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1250700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4024700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2495500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2395400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2746600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2752200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2435000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3368500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2352900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2360000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1331800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1168000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1284600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1224000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1175800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1246300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1406100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1351800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1285900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1302500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1341700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1172200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>716900</v>
+      </c>
+      <c r="F62" s="3">
         <v>684700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>660700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>679100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>655400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>633800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>556600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>646900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>324200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>221800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>218600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>222900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>219800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>177700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>180900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>206900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>209400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>188000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>186900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8458200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5739600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5392100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5446800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5719200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5709100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6047600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4732600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4829900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3355300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2988600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2961400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2921600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2865600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2871100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2867100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2933900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2878600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2865600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2779300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>357300</v>
+      </c>
+      <c r="F72" s="3">
         <v>325900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>333500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>315900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>316600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>467800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>508000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>466800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>430700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>367500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>335200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>292100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>264800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>200900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>167200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>89200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>66600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>26200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3123500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2106100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2057700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2046900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2020700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2010600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1823200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1378500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1333100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1298200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1234200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1205100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1165300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1135300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1061400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1015500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>949400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>925500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>880700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>853600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-151200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-40200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>41200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>36100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>63200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>32300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>43100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>64400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>33700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>78000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>22600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>40400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>20800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>22900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F83" s="3">
         <v>80800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>84200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>82100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>90500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>99300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>43800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>42700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>39700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>37100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>35500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>34300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>32100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>32300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>31400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>33500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>32700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>30400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="F89" s="3">
         <v>197500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>107600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-132000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>606000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-140200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>73600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>84200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>56900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>190500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>37700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>32300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>137400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>197000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>16600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>99700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>127500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>49700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-35900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-42200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-40800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-56900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-52100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-22800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-46000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-35100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-66900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-33600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-26700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-45100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1406600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-41600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-54100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-34700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-56700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-199600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-33400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-60100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-56300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-65900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-79600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-81200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-89000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-112300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1394800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-471100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-54000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>163200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1462300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-33100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>149700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-156800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>21400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>25300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-74200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-157400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>62400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-18000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-42600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>65400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-315200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>48600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-718700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1062000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12838800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10386300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9304400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7202500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6845200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7046800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5774000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6068600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6243000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5899100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4689000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4615700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4539700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4594700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4349200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4311100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4364900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4428900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4235000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4051800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11560000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9244000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8229400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6360900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6027100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6219400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5134900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6193200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5357400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5531600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5199000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4084300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4001100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3946100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3982900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3790500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3743500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3810200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3854000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3713600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3534600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1278800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1142300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1075000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>841600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>818100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>827400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>639100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>807500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>711200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>711400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>604700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>614600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>593600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>611800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>558700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>567600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>554700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>574900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>521400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>517200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,28 +1143,31 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,40 +1214,43 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7200</v>
       </c>
       <c r="I15" s="3">
         <v>7200</v>
       </c>
       <c r="J15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K15" s="3">
         <v>6700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4700</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1264,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12781000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10338100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9223800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7179100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6784300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7011000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5999600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7018100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5988100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6179500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5798600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4629800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4542700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4489100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4500900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4289100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4262000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4314400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4347500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4188300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4000500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E18" s="3">
         <v>48200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>80600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>60900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-225600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>46700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>51300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E21" s="3">
         <v>148200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>174100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>105800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>147200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>118900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-133700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>143100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>99900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>109400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>128300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>115000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>79600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>82200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E22" s="3">
         <v>44000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>17300</v>
       </c>
       <c r="M22" s="3">
         <v>17300</v>
       </c>
       <c r="N22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="O22" s="3">
         <v>16500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-262200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-60500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>56300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>67100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-111000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-81300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-151200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>115400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-151200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>115400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2146,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2104,17 +2164,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>50400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-151200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>33700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-151200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>33700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
         <v>35100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>416700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>417200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>420700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>372100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>7500</v>
       </c>
       <c r="R41" s="3">
         <v>7500</v>
       </c>
       <c r="S41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2105300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2238000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1629600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1432800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1237400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1448200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1415100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1304400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1230100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1226900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1227300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1128500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1093200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1068800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1065600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1070300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1034900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1058600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1028500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1038000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>990100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3190900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2864000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1839400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1541800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1477700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1523900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1549400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1803100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1349400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1411200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1356900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1128300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1140900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1115500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1051900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1054400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1043400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1034000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1013300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1000200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>985100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E45" s="3">
         <v>211700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>89400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>106300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1140400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1115600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>78500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5511000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5348800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3580400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3179100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3221200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3468900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3453900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3585900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3732600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3769700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2670600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2325200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2293500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2263100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2203500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2183600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2140000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2132800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2084900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2080500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2019700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3128,153 +3232,162 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2746300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2629300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2028300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2004700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1975600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1957600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1920200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1922400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1374800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1376300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>950500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>895900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>855600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>809400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>795500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>744300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>734900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>737600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>740700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>721600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>699800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3585100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2151100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2188100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2218700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2237000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2271600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2296800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>936100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>945400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>960100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>947200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>958400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>944400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>934300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>942900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>946900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>954300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>919700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>888500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>855800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E52" s="3">
         <v>103000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>77900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>70000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>60800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>58600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>55700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>57600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11956400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11581700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7845700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7449800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7493700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7739900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7719700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7870800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6111100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6163000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4653500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4222800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4166500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4086900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4000900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3932500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3882600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3883300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3804100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3746300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3632900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2446400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2374100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1776500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1513100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1025200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1456900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1608000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1372900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1041500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1188700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1130800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1045000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>940600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1042300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>973000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1022500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>886900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>908700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>907100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>920700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>850400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E58" s="3">
         <v>71500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>149200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>144400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>137900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>12000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>872500</v>
+      </c>
+      <c r="E59" s="3">
         <v>815700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>702000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>753600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>865100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>686600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>872800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>644300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>757000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>612800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>550200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>536900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>504100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>422800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>488600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>417000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>386200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>454500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>464500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>442600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>389200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3393500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3261300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2527200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2312000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2039500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2287900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2618700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2045300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1823100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1823000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1699300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1598800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1458200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1474700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1470000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1447100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1280100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1375200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1383300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1375100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1250700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4228200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4024700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2495500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2395400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2746600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2752200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2435000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3368500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2352900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2360000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1331800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1168000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1284600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1175800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1246300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1406100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1351800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1285900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1302500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1341700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1173800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1172200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>716900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>684700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>660700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>679100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>655400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>633800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>556600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>646900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>324200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>221800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>218600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>222900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>219800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>177700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>180900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>206900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>209400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>188000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>186900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8795500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8458200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5739600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5392100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5446800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5719200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5709100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6047600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4732600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4829900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3355300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2988600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2961400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2921600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2865600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2871100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2867100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2933900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2878600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2865600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2779300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>370400</v>
+      </c>
+      <c r="E72" s="3">
         <v>362000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>357300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>325900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>333500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>315900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>316600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>467800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>508000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>466800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>430700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>367500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>335200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>292100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>264800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>200900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>167200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>89200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>66600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3160900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3123500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2106100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2057700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2046900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2020700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2010600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1823200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1378500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1333100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1298200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1234200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1205100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1165300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1135300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1061400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1015500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>949400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>925500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>880700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>853600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-151200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>33700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E83" s="3">
         <v>98700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>91800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>82100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>42700</v>
       </c>
       <c r="M83" s="3">
         <v>42700</v>
       </c>
       <c r="N83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="O83" s="3">
         <v>39700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>33500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E89" s="3">
         <v>31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-108500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>197500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>107600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-132000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>606000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-140200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>73600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>190500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>137400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>197000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>99700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>127500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-312100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-199600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-79600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-81200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-89000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-112300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1394800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>87500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-471100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-54000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>163200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1462300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>149700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-156800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>25300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-74200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-157400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>62400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>65400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E102" s="3">
         <v>20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-90400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-315200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-718700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1062000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,332 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13079000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12838800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10386300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9304400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7202500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6845200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7046800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5774000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6068600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6243000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5899100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4689000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4615700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4539700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4594700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4349200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4311100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4364900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4428900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4235000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4051800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11733400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11560000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9244000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8229400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6360900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6027100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6219400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5134900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6193200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5357400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5531600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5199000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4084300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4001100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3946100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3982900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3790500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3743500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3810200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3854000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3713600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3534600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1345600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1278800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1142300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1075000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>841600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>818100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>827400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>639100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>807500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>711200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>711400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>604700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>614600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>593600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>611800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>558700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>567600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>554700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>574900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>521400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>517200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,20 +1176,20 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1184,8 +1203,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1217,43 +1236,46 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E15" s="3">
         <v>18400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7200</v>
       </c>
       <c r="J15" s="3">
         <v>7200</v>
       </c>
       <c r="K15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1267,8 +1289,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1288,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13010400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12781000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10338100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9223800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7179100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6784300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7011000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5999600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7018100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5988100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6179500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5798600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4629800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4542700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4489100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4500900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4289100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4262000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4314400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4347500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4188300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4000500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E18" s="3">
         <v>57800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>60900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-225600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>49100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>46700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>51300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E21" s="3">
         <v>173100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>148200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>174100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>105800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>147200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>118900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-133700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>143100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>99900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>82200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>115000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>79600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>82200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E22" s="3">
         <v>45200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>17300</v>
       </c>
       <c r="N22" s="3">
         <v>17300</v>
       </c>
       <c r="O22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="P22" s="3">
         <v>16500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-262200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-60500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>67100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-111000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>64500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-81300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-151200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>115400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-151200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>63200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>115400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2149,8 +2209,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2167,17 +2227,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>50400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-151200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>63200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>33700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>78000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-151200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>63200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>33700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>78000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>416700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>417200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>420700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>372100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>7500</v>
       </c>
       <c r="S41" s="3">
         <v>7500</v>
       </c>
       <c r="T41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2978,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2243300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2105300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2238000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1629600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1432800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1237400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1448200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1415100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1304400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1230100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1226900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1227300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1128500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1093200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1068800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1065600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1070300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1034900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1058600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1028500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1038000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>990100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3085300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3190900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2864000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1839400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1541800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1477700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1523900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1549400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1803100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1349400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1411200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1356900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1128300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1140900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1115500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1051900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1054400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1043400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1034000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1013300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1000200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>985100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E45" s="3">
         <v>205200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>211700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>103000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>89400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1140400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1115600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>78500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5568400</v>
+      </c>
+      <c r="E46" s="3">
         <v>5511000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5348800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3580400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3179100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3221200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3468900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3453900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3585900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3732600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3769700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2670600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2325200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2293500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2263100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2203500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2183600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2140000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2132800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2084900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2080500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2019700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3235,159 +3339,168 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2747500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2746300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2629300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2028300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2004700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1975600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1957600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1920200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1922400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1374800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1376300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>950500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>895900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>855600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>809400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>795500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>744300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>734900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>737600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>740700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>721600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>699800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3535300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3585100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2151100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2188100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2218700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2237000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2271600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2296800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>936100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>945400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>960100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>947200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>958400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>944400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>934300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>942900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>946900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>954300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>919700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>888500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>855800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E52" s="3">
         <v>114000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>77900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>72300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>70000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>60800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>58800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>55700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>57600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11979600</v>
+      </c>
+      <c r="E54" s="3">
         <v>11956400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11581700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7845700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7449800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7493700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7739900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7719700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7870800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6111100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6163000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4653500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4222800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4166500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4086900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4000900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3932500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3882600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3883300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3804100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3746300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3632900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2556300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2446400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2374100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1776500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1513100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1025200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1456900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1608000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1372900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1041500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1188700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1130800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1045000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>940600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1042300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>973000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1022500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>886900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>908700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>907100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>920700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>850400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E58" s="3">
         <v>74600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>71500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>149200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>144400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>137900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>12000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>871400</v>
+      </c>
+      <c r="E59" s="3">
         <v>872500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>815700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>702000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>753600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>865100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>686600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>872800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>644300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>757000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>612800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>550200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>536900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>504100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>422800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>488600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>417000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>386200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>454500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>464500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>442600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>389200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3503900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3393500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3261300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2527200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2312000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2039500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2287900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2618700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2045300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1823100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1823000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1699300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1598800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1458200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1474700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1470000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1447100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1280100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1375200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1383300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1375100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1250700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4083500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4228200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4024700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2495500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2395400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2746600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2752200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2435000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3368500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2352900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2360000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1331800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1168000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1284600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1224000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1175800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1246300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1406100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1351800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1285900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1302500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1341700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1187700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1173800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1172200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>716900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>684700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>660700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>679100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>655400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>633800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>556600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>646900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>324200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>221800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>218600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>222900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>219800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>177700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>180900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>206900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>209400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>188000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>186900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8775100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8795500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8458200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5739600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5392100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5446800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5719200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5709100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6047600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4732600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4829900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3355300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2988600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2961400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2921600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2865600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2871100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2867100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2933900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2878600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2865600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2779300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>393800</v>
+      </c>
+      <c r="E72" s="3">
         <v>370400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>362000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>357300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>325900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>333500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>315900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>316600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>467800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>508000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>466800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>430700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>367500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>335200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>292100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>264800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>200900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>167200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>89200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>66600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3204500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3160900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3123500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2106100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2057700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2046900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2020700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2010600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1823200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1378500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1333100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1298200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1234200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1205100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1165300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1135300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1061400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1015500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>949400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>925500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>880700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>853600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-151200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>63200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>33700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>78000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E83" s="3">
         <v>116500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>98700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>91800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>42700</v>
       </c>
       <c r="N83" s="3">
         <v>42700</v>
       </c>
       <c r="O83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="P83" s="3">
         <v>39700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E89" s="3">
         <v>122000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-108500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>197500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>107600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-132000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>606000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-140200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>73600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>190500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>137400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>197000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>99700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>127500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-35900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-33600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-312100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-199600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-79600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-81200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-89000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-112300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="E100" s="3">
         <v>164600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1394800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>87500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-471100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-54000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>163200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1462300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>149700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-156800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>25300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-74200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-157400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>62400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>65400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-90400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-315200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-718700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1062000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14590000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13079000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12838800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10386300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9304400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7202500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6845200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7046800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5774000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6068600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6243000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5899100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4689000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4615700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4539700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4594700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4349200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4311100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4364900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4428900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4235000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4051800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13100300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11733400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11560000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9244000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8229400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6360900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6027100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6219400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5134900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6193200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5357400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5531600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5199000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4084300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4001100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3946100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3982900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3790500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3743500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3810200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3854000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3713600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3534600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1489700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1345600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1278800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1142300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1075000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>841600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>818100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>827400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>639100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>807500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>711200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>711400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>604700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>614600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>593600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>611800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>558700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>567600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>554700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>574900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>521400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>517200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,20 +1198,20 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1206,8 +1225,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1239,46 +1258,49 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E15" s="3">
         <v>20600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7200</v>
       </c>
       <c r="K15" s="3">
         <v>7200</v>
       </c>
       <c r="L15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M15" s="3">
         <v>6700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1292,8 +1314,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1313,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14437200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13010400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12781000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10338100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9223800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7179100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6784300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7011000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5999600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7018100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5988100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6179500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5798600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4629800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4542700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4489100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4500900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4289100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4262000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4314400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4347500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4188300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4000500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E18" s="3">
         <v>68600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>57800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>60900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-225600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>49100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>46700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>51300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E20" s="3">
         <v>11300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E21" s="3">
         <v>204000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>173100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>148200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>174100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>105800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>147200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>118900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-133700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>74000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>143100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>99900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>109400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>86300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>128300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>82200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>115000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>79600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>82200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E22" s="3">
         <v>45900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>17300</v>
       </c>
       <c r="O22" s="3">
         <v>17300</v>
       </c>
       <c r="P22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>16500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E23" s="3">
         <v>34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-262200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>36200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>67100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>38200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-111000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>64500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-81300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E26" s="3">
         <v>23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-151200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>115400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E27" s="3">
         <v>23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-151200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>63200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>115400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2212,8 +2272,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2230,17 +2290,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>50400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E33" s="3">
         <v>23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-151200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>63200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>64400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>78000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E35" s="3">
         <v>23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-151200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>63200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>64400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>78000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>416700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>417200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>420700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>372100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>7500</v>
       </c>
       <c r="T41" s="3">
         <v>7500</v>
       </c>
       <c r="U41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V41" s="3">
         <v>10100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,304 +3070,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2341400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2243300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2105300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2238000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1629600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1432800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1237400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1448200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1415100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1304400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1230100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1226900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1227300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1128500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1093200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1068800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1065600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1070300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1034900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1058600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1028500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1038000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>990100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3428600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3085300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3190900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2864000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1839400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1541800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1477700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1523900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1549400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1803100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1349400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1411200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1356900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1128300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1140900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1115500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1051900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1054400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1043400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1034000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1013300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1000200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>985100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E45" s="3">
         <v>226100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>211700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>89400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1140400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1115600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6022000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5568400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5511000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5348800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3580400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3179100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3221200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3468900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3453900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3585900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3732600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3769700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2670600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2325200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2293500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2263100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2203500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2183600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2140000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2132800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2084900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2080500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2019700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3342,165 +3446,174 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2757900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2747500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2746300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2629300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2028300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2004700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1975600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1957600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1920200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1922400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1374800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1376300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>950500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>895900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>855600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>809400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>795500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>744300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>734900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>737600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>740700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>721600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>699800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3474800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3535300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3585100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3500600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2151100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2188100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2218700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2237000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2271600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2296800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>936100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>945400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>960100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>947200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>958400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>944400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>934300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>942900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>946900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>954300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>919700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>888500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>855800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E52" s="3">
         <v>128400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>114000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>77900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>72300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>60800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>58600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>58800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>55700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>57600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12378000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11979600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11956400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11581700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7845700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7449800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7493700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7739900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7719700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7870800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6111100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6163000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4653500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4222800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4166500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4086900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4000900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3932500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3882600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3883300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3804100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3746300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3632900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2559500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2556300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2446400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2374100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1776500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1513100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1025200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1456900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1608000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1372900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1041500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1188700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1130800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>940600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1042300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>973000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1022500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>886900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>908700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>907100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>920700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>850400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E58" s="3">
         <v>76200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>74600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>71500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>149200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>144400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>137900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>12000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>993600</v>
+      </c>
+      <c r="E59" s="3">
         <v>871400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>872500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>815700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>702000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>753600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>865100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>686600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>872800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>644300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>757000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>612800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>550200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>536900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>504100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>422800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>488600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>417000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>386200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>454500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>464500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>442600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>389200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3633000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3503900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3393500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3261300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2527200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2312000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2039500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2287900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2618700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2045300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1823100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1823000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1699300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1598800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1458200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1474700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1470000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1447100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1280100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1375200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1383300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1375100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1250700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4275500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4083500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4228200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4024700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2495500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2395400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2746600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2752200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2435000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3368500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2352900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2360000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1331800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1168000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1284600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1224000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1175800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1246300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1406100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1351800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1285900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1302500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1341700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1187700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1173800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1172200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>716900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>684700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>660700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>679100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>655400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>633800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>556600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>646900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>324200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>221800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>218600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>222900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>219800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>177700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>180900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>206900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>209400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>188000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>186900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9078500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8775100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8795500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8458200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5739600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5392100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5446800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5719200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5709100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6047600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4732600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4829900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3355300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2988600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2961400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2921600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2865600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2871100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2867100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2933900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2878600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2865600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2779300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>469800</v>
+      </c>
+      <c r="E72" s="3">
         <v>393800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>370400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>362000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>357300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>325900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>333500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>315900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>316600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>467800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>508000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>466800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>430700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>367500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>335200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>292100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>264800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>200900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>167200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>89200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>66600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3299500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3204500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3160900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3123500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2106100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2057700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2046900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2020700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2010600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1823200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1378500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1333100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1298200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1234200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1205100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1165300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1135300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1061400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1015500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>949400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>925500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>880700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>853600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E81" s="3">
         <v>23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-151200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>63200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>64400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>78000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E83" s="3">
         <v>124100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>116500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>98700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>82100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>90500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>99300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>42700</v>
       </c>
       <c r="O83" s="3">
         <v>42700</v>
       </c>
       <c r="P83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>39700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="E89" s="3">
         <v>236800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>122000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-108500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>197500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>107600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-132000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>606000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-140200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>73600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>190500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>137400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>197000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>99700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>127500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>49700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-33600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-312100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-199600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-79600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-81200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-112300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7022,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>185300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-163200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>164600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1394800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>87500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-471100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-54000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>163200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1462300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>149700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-156800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-74200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-157400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>62400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>65400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7176,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-90400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-315200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-718700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1062000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14719300</v>
+      </c>
+      <c r="E8" s="3">
         <v>14590000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13079000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12838800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10386300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9304400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7202500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6845200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7046800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5774000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6068600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6243000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5899100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4689000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4615700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4539700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4594700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4349200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4311100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4364900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4428900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4235000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4051800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13144200</v>
+      </c>
+      <c r="E9" s="3">
         <v>13100300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11733400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11560000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9244000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8229400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6360900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6027100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6219400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5134900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6193200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5357400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5531600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5199000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4084300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4001100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3946100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3982900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3790500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3743500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3810200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3854000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3713600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3534600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1575100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1489700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1345600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1278800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1142300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1075000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>841600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>818100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>827400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>639100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>807500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>711200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>711400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>604700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>614600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>593600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>611800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>558700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>567600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>554700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>574900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>521400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>517200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1200,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,20 +1220,20 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1228,8 +1247,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1261,49 +1280,52 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E15" s="3">
         <v>19900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7200</v>
       </c>
       <c r="L15" s="3">
         <v>7200</v>
       </c>
       <c r="M15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N15" s="3">
         <v>6700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1317,8 +1339,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1338,8 +1360,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14528100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14437200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13010400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12781000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10338100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9223800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7179100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6784300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7011000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5999600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7018100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5988100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6179500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5798600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4629800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4542700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4489100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4500900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4289100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4262000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4314400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4347500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4188300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4000500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>191200</v>
+      </c>
+      <c r="E18" s="3">
         <v>152800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>57800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>60900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-225600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>49100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>46700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>51300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E20" s="3">
         <v>11200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>299500</v>
+      </c>
+      <c r="E21" s="3">
         <v>287500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>173100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>148200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>174100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>147200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>118900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-133700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>143100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>99900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>109400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>86300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>128300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>81500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>82200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>115000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>79600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>82200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E22" s="3">
         <v>47800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>17300</v>
       </c>
       <c r="P22" s="3">
         <v>17300</v>
       </c>
       <c r="Q22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="R22" s="3">
         <v>16500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E23" s="3">
         <v>116200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-262200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>78500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>36200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>67100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>38200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E24" s="3">
         <v>40200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-111000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-81300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E26" s="3">
         <v>76000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-151200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>115400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E27" s="3">
         <v>76000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-151200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>63200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>115400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2275,8 +2335,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2293,17 +2353,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>50400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-1100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2317,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E33" s="3">
         <v>76000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-151200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>63200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>64400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>78000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>40400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E35" s="3">
         <v>76000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-151200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>63200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>64400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>78000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>40400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,85 +3004,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>416700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>417200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>420700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>372100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>7500</v>
       </c>
       <c r="U41" s="3">
         <v>7500</v>
       </c>
       <c r="V41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,316 +3162,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2308400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2341400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2243300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2105300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2238000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1629600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1432800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1237400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1448200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1415100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1304400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1230100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1226900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1227300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1128500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1093200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1068800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1065600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1070300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1034900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1058600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1028500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1038000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>990100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3335000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3428600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3085300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3190900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2864000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1839400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1541800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1477700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1523900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1549400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1803100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1349400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1411200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1356900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1128300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1140900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1115500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1051900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1054400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1043400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1034000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1013300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1000200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>985100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E45" s="3">
         <v>240400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>226100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>205200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>211700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>89400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1140400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1115600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>78500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>33300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>35000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5867700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6022000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5568400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5511000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5348800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3580400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3179100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3221200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3468900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3453900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3585900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3732600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3769700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2670600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2325200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2293500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2263100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2203500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2183600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2140000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2132800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2084900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2080500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2019700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3449,171 +3553,180 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2740700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2757900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2747500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2746300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2629300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2028300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2004700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1975600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1957600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1920200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1922400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1374800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1376300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>950500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>895900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>855600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>809400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>795500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>744300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>734900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>737600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>740700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>721600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>699800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3430600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3474800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3535300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3585100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3500600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2151100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2188100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2218700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2237000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2271600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2296800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>936100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>945400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>960100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>947200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>958400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>944400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>934300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>942900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>946900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>954300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>919700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>888500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>855800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E52" s="3">
         <v>123300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>128400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>85900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>77900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>72300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>70000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>60800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>58600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>58800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>55700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>57600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12168600</v>
+      </c>
+      <c r="E54" s="3">
         <v>12378000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11979600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11956400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11581700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7845700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7449800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7493700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7739900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7719700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7870800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6111100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6163000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4653500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4222800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4166500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4086900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4000900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3932500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3882600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3883300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3804100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3746300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3632900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2628600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2559500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2556300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2446400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2374100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1776500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1513100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1025200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1456900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1608000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1372900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1041500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1188700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1045000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>940600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1042300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>973000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1022500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>886900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>908700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>907100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>920700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>850400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E58" s="3">
         <v>79900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>74600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>71500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>149200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>144400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>137900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>12000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>11100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>861300</v>
+      </c>
+      <c r="E59" s="3">
         <v>993600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>871400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>872500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>815700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>702000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>753600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>865100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>686600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>872800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>644300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>757000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>612800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>550200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>536900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>504100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>422800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>488600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>417000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>386200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>454500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>464500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>442600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>389200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3573400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3633000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3503900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3393500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3261300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2527200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2312000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2039500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2287900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2618700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2045300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1823100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1823000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1699300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1598800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1458200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1474700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1470000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1447100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1280100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1375200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1383300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1375100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1250700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4034200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4275500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4083500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4228200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4024700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2495500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2395400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2746600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2752200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2435000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3368500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2352900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2360000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1331800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1168000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1284600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1224000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1175800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1246300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1406100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1351800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1285900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1302500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1341700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1160300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1170000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1187700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1173800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1172200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>716900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>684700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>660700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>679100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>655400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>633800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>556600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>646900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>324200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>221800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>218600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>222900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>219800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>177700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>180900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>206900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>209400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>188000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>186900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8767900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9078500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8775100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8795500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8458200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5739600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5392100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5446800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5719200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5709100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6047600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4732600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4829900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3355300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2988600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2961400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2921600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2865600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2871100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2867100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2933900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2878600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2865600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2779300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>565500</v>
+      </c>
+      <c r="E72" s="3">
         <v>469800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>393800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>370400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>362000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>357300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>325900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>333500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>315900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>316600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>467800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>508000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>466800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>430700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>367500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>335200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>292100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>264800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>200900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>167200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>89200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>66600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3400700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3299500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3204500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3160900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3123500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2106100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2057700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2046900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2020700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2010600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1823200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1378500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1333100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1298200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1234200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1205100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1165300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1135300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1061400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1015500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>949400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>925500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>880700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>853600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E81" s="3">
         <v>76000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-151200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>63200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>64400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>78000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>40400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E83" s="3">
         <v>123500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>124100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>116500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>98700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>90500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>42700</v>
       </c>
       <c r="P83" s="3">
         <v>42700</v>
       </c>
       <c r="Q83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="R83" s="3">
         <v>39700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>315900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-114100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>236800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>122000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-108500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>197500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>107600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-132000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>606000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-140200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>190500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>137400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>197000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>99700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>127500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>49700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-52100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-45100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-312100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-199600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-60100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-42100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-79600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-81200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-112300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7027,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,85 +7267,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-277200</v>
+      </c>
+      <c r="E100" s="3">
         <v>185300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-163200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>164600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1394800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>87500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-471100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-54000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>163200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1462300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>149700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-156800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-74200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-157400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>62400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>65400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,81 +7427,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-90400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-315200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-718700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1062000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,369 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13898900</v>
+      </c>
+      <c r="E8" s="3">
         <v>14719300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14590000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13079000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12838800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10386300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9304400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7202500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6845200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7046800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5774000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6068600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6243000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5899100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4689000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4615700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4539700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4594700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4349200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4311100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4364900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4428900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4235000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4051800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12399300</v>
+      </c>
+      <c r="E9" s="3">
         <v>13144200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13100300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11733400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11560000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9244000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8229400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6360900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6027100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6219400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5134900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6193200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5357400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5531600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5199000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4084300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4001100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3946100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3982900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3790500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3743500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3810200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3854000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3713600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3534600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1499600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1575100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1489700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1345600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1278800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1142300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1075000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>841600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>818100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>827400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>639100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>807500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>711200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>711400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>604700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>614600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>593600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>611800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>558700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>567600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>554700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>574900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>521400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>517200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1056,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1220,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,20 +1243,20 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1250,8 +1270,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1283,52 +1303,55 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E15" s="3">
         <v>20400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7200</v>
       </c>
       <c r="M15" s="3">
         <v>7200</v>
       </c>
       <c r="N15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O15" s="3">
         <v>6700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1342,8 +1365,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1363,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13754900</v>
+      </c>
+      <c r="E17" s="3">
         <v>14528100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14437200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13010400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12781000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10338100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9223800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7179100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6784300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7011000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5999600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7018100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5988100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6179500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5798600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4629800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4542700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4489100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4500900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4289100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4262000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4314400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4347500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4188300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4000500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E18" s="3">
         <v>191200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>152800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>57800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-225600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>73000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>49100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>81400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>46700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>51300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E21" s="3">
         <v>299500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>287500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>173100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>148200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>174100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>105800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>147200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>118900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-133700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>124500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>143100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>99900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>109400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>86300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>128300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>81500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>82200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>115000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>79600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>82200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E22" s="3">
         <v>50400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>17300</v>
       </c>
       <c r="Q22" s="3">
         <v>17300</v>
       </c>
       <c r="R22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="S22" s="3">
         <v>16500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E23" s="3">
         <v>129900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-262200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>78500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>36200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>67100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>38200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E24" s="3">
         <v>34200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-111000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-20300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-81300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E26" s="3">
         <v>95700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-151200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>115400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>40400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E27" s="3">
         <v>95700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>76000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-151200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>115400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>40400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>22900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,8 +2399,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2356,17 +2417,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>50400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-1100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2380,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>10900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E33" s="3">
         <v>95700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-151200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>64400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>33700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>78000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>40400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>22900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E35" s="3">
         <v>95700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-151200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>64400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>33700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>78000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>40400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>22900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,88 +3091,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>416700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>417200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>420700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>372100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>7500</v>
       </c>
       <c r="V41" s="3">
         <v>7500</v>
       </c>
       <c r="W41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="X41" s="3">
         <v>10100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3165,328 +3255,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2241800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2308400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2341400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2243300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2105300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2238000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1629600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1432800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1237400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1448200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1415100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1304400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1230100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1226900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1227300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1128500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1093200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1068800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1065600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1070300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1034900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1058600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1028500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1038000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>990100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3344300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3335000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3428600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3085300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3190900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2864000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1839400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1541800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1477700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1523900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1549400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1803100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1349400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1411200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1356900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1128300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1140900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1115500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1051900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1054400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1043400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1013300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1000200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>985100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E45" s="3">
         <v>213700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>240400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>226100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>205200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>211700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1140400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1115600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>78500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>33300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>35000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>34700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>32800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5807800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5867700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6022000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5568400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5511000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5348800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3580400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3179100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3221200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3468900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3453900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3585900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3732600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3769700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2670600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2325200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2293500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2263100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2203500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2183600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2140000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2132800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2084900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2080500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2019700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3556,177 +3661,186 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2823800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2740700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2757900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2747500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2746300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2629300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2028300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2004700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1975600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1957600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1920200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1922400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1374800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1376300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>950500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>895900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>855600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>809400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>795500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>744300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>734900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>737600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>740700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>721600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>699800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3424100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3430600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3474800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3535300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3585100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3500600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2151100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2188100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2218700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2237000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2271600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2296800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>936100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>945400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>960100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>947200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>958400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>944400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>934300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>942900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>946900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>954300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>919700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>888500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>855800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E52" s="3">
         <v>129600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>128400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>77900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>74000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>72300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>54500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>59000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>70000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>67600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>60800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>58600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>58800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>55700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>57600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12189600</v>
+      </c>
+      <c r="E54" s="3">
         <v>12168600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12378000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11979600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11956400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11581700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7845700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7449800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7493700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7739900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7719700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7870800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6111100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6163000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4653500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4222800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4166500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4086900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4000900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3932500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3882600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3883300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3804100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3746300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3632900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2417500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2628600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2559500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2556300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2446400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2374100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1776500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1513100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1025200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1456900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1608000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1372900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1041500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1188700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1130800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1045000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>940600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1042300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>973000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1022500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>886900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>908700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>907100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>920700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>850400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E58" s="3">
         <v>83500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>79900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>74600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>71500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>149200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>144400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>137900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>12000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>11800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>11100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>890400</v>
+      </c>
+      <c r="E59" s="3">
         <v>861300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>993600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>871400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>872500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>815700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>702000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>753600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>865100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>686600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>872800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>644300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>757000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>612800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>550200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>536900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>504100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>422800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>488600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>417000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>386200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>454500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>464500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>442600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>389200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3396000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3573400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3633000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3503900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3393500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3261300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2527200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2312000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2039500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2287900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2618700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2045300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1823100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1823000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1699300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1598800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1458200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1474700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1470000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1447100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1280100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1375200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1383300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1375100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1250700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4058400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4034200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4275500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4083500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4228200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4024700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2495500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2395400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2746600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2752200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2435000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3368500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2352900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2360000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1331800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1168000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1284600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1224000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1175800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1246300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1406100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1351800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1285900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1302500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1341700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1238700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1160300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1170000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1187700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1173800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1172200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>716900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>684700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>660700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>679100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>655400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>633800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>556600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>646900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>324200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>221800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>218600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>222900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>219800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>177700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>180900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>206900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>209400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>188000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>186900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8693100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8767900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9078500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8775100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8795500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8458200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5739600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5392100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5446800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5719200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5709100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6047600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4732600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4829900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3355300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2988600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2961400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2921600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2865600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2871100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2867100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2933900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2878600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2865600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2779300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>636600</v>
+      </c>
+      <c r="E72" s="3">
         <v>565500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>469800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>393800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>370400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>362000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>357300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>325900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>333500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>315900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>316600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>467800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>508000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>466800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>430700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>367500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>335200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>292100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>264800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>200900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>167200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>89200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>66600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3496500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3400700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3299500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3204500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3160900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3123500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2106100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2057700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2046900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2020700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2010600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1823200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1378500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1333100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1298200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1234200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1205100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1165300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1135300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1061400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1015500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>949400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>925500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>880700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>853600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E81" s="3">
         <v>95700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-151200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>64400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>33700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>78000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>40400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>22900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E83" s="3">
         <v>119200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>123500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>124100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>116500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>98700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>91800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>90500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>42700</v>
       </c>
       <c r="Q83" s="3">
         <v>42700</v>
       </c>
       <c r="R83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="S83" s="3">
         <v>39700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>33500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>30400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E89" s="3">
         <v>315900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-114100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>236800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>122000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-108500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>197500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-132000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>606000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-140200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>73600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>190500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>137400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>197000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>99700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>127500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>49700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-73300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-312100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-199600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-60100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-42100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-79600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-81200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-89000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-112300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7030,8 +7264,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,88 +7513,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-277200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>185300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-163200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>164600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1394800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>87500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-471100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-54000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>163200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1462300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>149700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-156800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>25300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-74200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-157400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>62400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-42600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>65400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7430,84 +7679,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-90400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-315200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-718700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1062000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13771300</v>
+      </c>
+      <c r="E8" s="3">
         <v>13898900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14719300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14590000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13079000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12838800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10386300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9304400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7202500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6845200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7046800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5774000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6068600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6243000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5899100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4689000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4615700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4539700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4594700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4349200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4311100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4364900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4428900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4235000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4051800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12259400</v>
+      </c>
+      <c r="E9" s="3">
         <v>12399300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13144200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13100300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11733400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11560000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9244000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8229400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6360900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6027100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6219400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5134900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6193200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5357400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5531600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5199000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4084300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4001100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3946100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3982900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3790500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3743500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3810200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3854000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3713600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3534600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1511900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1499600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1575100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1489700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1345600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1278800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1142300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1075000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>841600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>818100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>827400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>639100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>807500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>711200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>711400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>604700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>614600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>593600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>611800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>558700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>567600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>554700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>574900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>521400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>517200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1070,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1240,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,20 +1266,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1273,8 +1293,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1306,55 +1326,58 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E15" s="3">
         <v>21200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7200</v>
       </c>
       <c r="N15" s="3">
         <v>7200</v>
       </c>
       <c r="O15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P15" s="3">
         <v>6700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1391,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13602500</v>
+      </c>
+      <c r="E17" s="3">
         <v>13754900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14528100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14437200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13010400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12781000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10338100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9223800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7179100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6784300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7011000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5999600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7018100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5988100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6179500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5798600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4629800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4542700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4489100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4500900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4289100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4262000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4314400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4347500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4188300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4000500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E18" s="3">
         <v>144000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>191200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>152800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>57800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-225600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>73000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>93800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>49100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>81400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>46700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>51300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,423 +1647,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E21" s="3">
         <v>277100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>299500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>287500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>173100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>148200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>174100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>147200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>118900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-133700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>143100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>99900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>109400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>86300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>128300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>92100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>81500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>82200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>115000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>79600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>82200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E22" s="3">
         <v>55700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>17300</v>
       </c>
       <c r="R22" s="3">
         <v>17300</v>
       </c>
       <c r="S22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="T22" s="3">
         <v>16500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E23" s="3">
         <v>96200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>129900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-262200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-60500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>78500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>36200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>67100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>38200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E24" s="3">
         <v>25100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-111000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>64500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-81300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>26700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E26" s="3">
         <v>71100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>95700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-151200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>115400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>22900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E27" s="3">
         <v>71100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>95700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-151200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-40200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>63200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>34800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>115400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>22900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2402,8 +2463,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2420,17 +2481,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>50400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E33" s="3">
         <v>71100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>95700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-151200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-40200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>63200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>28200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>64400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>33700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>78000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>40400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>22900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E35" s="3">
         <v>71100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>95700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-151200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-40200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>63200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>28200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>64400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>33700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>78000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>40400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>22900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,91 +3178,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>416700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>417200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>420700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>372100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8600</v>
-      </c>
-      <c r="V41" s="3">
-        <v>7500</v>
       </c>
       <c r="W41" s="3">
         <v>7500</v>
       </c>
       <c r="X41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Y41" s="3">
         <v>10100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3258,340 +3348,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2241800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2308400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2341400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2243300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2105300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2238000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1629600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1432800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1237400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1448200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1415100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1304400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1230100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1226900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1227300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1128500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1093200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1068800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1065600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1070300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1034900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1058600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1028500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1038000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>990100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3247300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3344300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3335000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3428600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3085300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3190900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2864000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1839400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1541800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1477700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1523900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1549400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1803100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1349400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1411200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1356900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1128300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1140900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1115500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1051900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1054400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1043400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1013300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1000200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>985100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E45" s="3">
         <v>215600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>213700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>240400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>226100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>205200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>211700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>89400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>106300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1140400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1115600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>71700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>78500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>33300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>35000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>34700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>32800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5833000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5807800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5867700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6022000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5568400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5511000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5348800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3580400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3179100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3221200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3468900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3453900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3585900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3732600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3769700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2670600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2325200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2293500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2263100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2203500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2183600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2140000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2132800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2084900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2080500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2019700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3664,183 +3769,192 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2857400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2823800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2740700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2757900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2747500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2746300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2629300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2028300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2004700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1975600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1957600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1920200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1922400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1374800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1376300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>950500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>895900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>855600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>809400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>795500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>744300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>734900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>737600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>740700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>721600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>699800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3376400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3424100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3430600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3474800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3535300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3585100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3500600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2151100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2188100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2218700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2237000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2271600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2296800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>936100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>945400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>960100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>947200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>958400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>944400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>934300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>942900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>946900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>954300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>919700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>888500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>855800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E52" s="3">
         <v>133900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>129600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>123300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>128400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>114000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>72300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>54500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>59000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>70000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>67600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>60800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>58600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>58800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>55700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>57600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12189500</v>
+      </c>
+      <c r="E54" s="3">
         <v>12189600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12168600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12378000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11979600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11956400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11581700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7845700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7449800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7493700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7739900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7719700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7870800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6111100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6163000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4653500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4222800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4166500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4086900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4000900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3932500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3882600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3883300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3804100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3746300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3632900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2477400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2417500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2628600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2559500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2556300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2446400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2374100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1776500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1513100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1025200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1456900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1608000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1372900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1041500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1188700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1130800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1045000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>940600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1042300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>973000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1022500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>886900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>908700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>907100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>920700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>850400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E58" s="3">
         <v>88100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>83500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>79900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>74600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>71500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>149200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>144400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>137900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>12000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>11700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>11800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>11100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>885500</v>
+      </c>
+      <c r="E59" s="3">
         <v>890400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>861300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>993600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>871400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>872500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>815700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>702000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>753600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>865100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>686600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>872800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>644300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>757000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>612800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>550200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>536900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>504100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>422800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>488600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>417000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>386200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>454500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>464500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>442600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>389200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3456900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3396000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3573400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3633000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3503900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3393500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3261300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2527200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2312000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2039500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2287900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2618700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2045300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1823100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1823000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1699300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1598800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1458200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1474700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1470000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1447100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1280100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1375200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1383300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1375100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1250700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3928500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4058400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4034200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4275500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4083500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4228200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4024700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2495500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2395400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2746600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2752200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2435000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3368500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2352900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2360000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1331800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1168000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1284600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1224000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1175800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1246300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1406100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1351800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1285900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1302500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1341700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1222400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1238700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1160300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1170000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1187700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1173800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1172200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>716900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>684700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>660700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>679100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>655400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>633800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>556600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>646900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>324200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>221800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>218600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>222900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>219800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>177700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>180900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>206900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>209400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>188000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>186900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8607800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8693100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8767900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9078500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8775100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8795500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8458200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5739600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5392100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5446800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5719200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5709100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6047600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4732600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4829900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3355300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2988600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2961400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2921600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2865600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2871100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2867100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2933900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2878600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2865600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2779300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>716900</v>
+      </c>
+      <c r="E72" s="3">
         <v>636600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>565500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>469800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>393800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>370400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>362000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>357300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>325900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>333500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>315900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>316600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>467800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>508000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>466800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>430700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>367500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>335200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>292100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>264800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>200900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>167200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>89200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>66600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3581700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3496500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3299500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3204500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3160900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3123500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2106100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2057700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2046900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2020700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2010600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1823200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1378500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1333100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1298200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1234200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1205100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1165300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1135300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1061400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1015500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>949400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>925500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>880700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>853600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E81" s="3">
         <v>71100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>95700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-151200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-40200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>63200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>28200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>64400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>33700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>78000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>40400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>22900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E83" s="3">
         <v>125200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>119200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>123500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>124100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>116500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>98700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>91800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>42700</v>
       </c>
       <c r="R83" s="3">
         <v>42700</v>
       </c>
       <c r="S83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="T83" s="3">
         <v>39700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>33500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>32700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>30400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>232700</v>
+      </c>
+      <c r="E89" s="3">
         <v>108600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>315900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-114100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>236800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>122000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-108500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>197500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-132000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>606000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-140200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>73600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>190500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>137400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>197000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>99700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>127500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>49700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-52100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-33600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-26700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-45100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-120600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-312100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-199600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-42100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-79600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-81200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-89000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-112300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,91 +7759,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-171400</v>
+      </c>
+      <c r="E100" s="3">
         <v>7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-277200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>185300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-163200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>164600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1394800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>87500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-471100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>163200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1462300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>149700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-156800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>25300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-74200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-157400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>62400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-42600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>65400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7682,87 +7931,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-315200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-718700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1062000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14865200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13771300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13898900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14719300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14590000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13079000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12838800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10386300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9304400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7202500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6845200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7046800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5774000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6068600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6243000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5899100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4689000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4615700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4539700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4594700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4349200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4311100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4364900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4428900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4235000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4051800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13196900</v>
+      </c>
+      <c r="E9" s="3">
         <v>12259400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12399300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13144200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13100300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11733400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11560000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9244000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8229400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6360900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6027100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6219400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5134900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6193200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5357400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5531600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5199000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4084300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4001100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3946100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3982900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3790500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3743500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3810200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3854000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3713600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3534600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1668300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1511900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1499600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1575100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1489700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1345600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1278800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1142300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1075000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>841600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>818100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>827400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>639100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>807500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>711200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>711400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>604700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>614600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>593600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>611800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>558700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>567600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>554700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>574900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>521400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>517200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1259,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1269,20 +1288,20 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1296,8 +1315,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1329,58 +1348,61 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E15" s="3">
         <v>21900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7200</v>
       </c>
       <c r="O15" s="3">
         <v>7200</v>
       </c>
       <c r="P15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4700</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1394,8 +1416,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14603400</v>
+      </c>
+      <c r="E17" s="3">
         <v>13602500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13754900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14528100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14437200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13010400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12781000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10338100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9223800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7179100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6784300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7011000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5999600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7018100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5988100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6179500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5798600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4629800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4542700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4489100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4500900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4289100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4262000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4314400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4347500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4188300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4000500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E18" s="3">
         <v>168800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>144000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>191200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>152800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>57800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-225600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>59200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>73000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>93800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>49100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>81400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>46700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>51300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>389600</v>
+      </c>
+      <c r="E21" s="3">
         <v>292500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>277100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>299500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>287500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>204000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>173100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>148200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>174100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-133700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>143100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>99900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>109400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>86300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>128300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>92100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>81500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>82200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>115000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>79600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>82200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>17300</v>
       </c>
       <c r="S22" s="3">
         <v>17300</v>
       </c>
       <c r="T22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="U22" s="3">
         <v>16500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>13600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E23" s="3">
         <v>111800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>129900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-262200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>35200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>78500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>36200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>67100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>32900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>38200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-111000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>64500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-81300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>26700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E26" s="3">
         <v>80300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>95700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-151200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>34800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>115400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>40400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E27" s="3">
         <v>80300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>95700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-151200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>63200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>34800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>115400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>40400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>22900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2466,8 +2526,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2484,17 +2544,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>50400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2508,8 +2568,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E33" s="3">
         <v>80300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-151200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>63200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>28200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>64400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>33700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>78000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>40400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>22900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E35" s="3">
         <v>80300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-151200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>63200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>28200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>64400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>33700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>78000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>40400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>22900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,94 +3264,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E41" s="3">
         <v>8200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>416700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>417200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>420700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>372100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>7500</v>
       </c>
       <c r="X41" s="3">
         <v>7500</v>
       </c>
       <c r="Y41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Z41" s="3">
         <v>10100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3351,352 +3440,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2346000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2241800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2308400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2341400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2243300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2105300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2238000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1629600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1432800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1237400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1448200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1415100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1304400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1230100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1226900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1227300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1128500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1093200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1068800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1065600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1070300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1034900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1058600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1028500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1038000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>990100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3390000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3247300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3344300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3335000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3428600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3085300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3190900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2864000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1839400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1541800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1477700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1523900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1549400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1803100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1349400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1411200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1356900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1128300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1140900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1115500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1051900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1054400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1043400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1034000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1013300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1000200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>985100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E45" s="3">
         <v>231500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>215600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>213700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>240400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>226100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>205200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>211700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>89400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>106300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1140400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1115600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>71700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>70200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>78500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>33300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>35000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>34700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>32800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6071500</v>
+      </c>
+      <c r="E46" s="3">
         <v>5833000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5807800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5867700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6022000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5568400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5511000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5348800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3580400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3179100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3221200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3468900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3453900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3585900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3732600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3769700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2670600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2325200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2293500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2263100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2203500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2183600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2140000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2132800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2084900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2080500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2019700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3772,189 +3876,198 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
+      <c r="AB47" s="3">
+        <v>0</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2967600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2857400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2823800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2740700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2757900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2747500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2746300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2629300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2028300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2004700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1975600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1957600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1920200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1922400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1374800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1376300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>950500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>895900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>855600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>809400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>795500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>744300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>734900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>737600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>740700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>721600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>699800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3329400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3376400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3424100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3430600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3474800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3535300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3585100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3500600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2151100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2188100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2218700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2237000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2271600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2296800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>936100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>945400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>960100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>947200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>958400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>944400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>934300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>942900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>946900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>954300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>919700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>888500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>855800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E52" s="3">
         <v>122700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>133900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>129600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>123300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>128400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>114000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>72300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>59000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>70000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>60800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>58600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>58800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>55700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>57600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12499000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12189500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12189600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12168600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12378000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11979600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11956400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11581700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7845700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7449800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7493700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7739900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7719700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7870800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6111100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6163000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4653500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4222800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4166500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4086900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4000900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3932500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3882600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3883300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3804100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3746300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3632900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2453500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2477400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2417500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2628600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2559500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2556300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2446400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2374100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1776500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1513100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1025200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1456900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1608000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1372900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1041500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1188700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1130800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1045000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>940600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1042300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>973000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1022500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>886900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>908700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>907100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>920700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>850400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E58" s="3">
         <v>94000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>88100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>79900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>76200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>74600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>71500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>149200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>144400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>137900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>12000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>11700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>11800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>11100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E59" s="3">
         <v>885500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>890400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>861300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>993600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>871400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>872500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>815700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>702000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>753600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>865100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>686600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>872800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>644300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>757000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>612800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>550200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>536900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>504100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>422800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>488600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>417000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>386200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>454500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>464500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>442600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>389200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3553100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3456900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3396000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3573400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3633000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3503900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3393500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3261300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2527200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2312000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2039500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2287900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2618700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2045300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1823100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1823000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1699300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1598800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1458200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1474700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1470000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1447100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1280100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1375200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1383300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1375100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1250700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3907400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3928500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4058400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4034200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4275500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4083500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4228200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4024700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2495500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2395400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2746600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2752200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2435000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3368500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2352900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2360000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1331800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1168000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1284600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1224000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1175800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1246300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1406100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1351800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1285900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1302500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1341700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1222400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1238700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1160300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1170000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1187700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1173800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1172200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>716900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>684700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>660700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>679100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>655400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>633800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>556600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>646900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>324200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>221800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>218600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>222900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>219800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>177700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>180900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>206900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>209400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>188000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>186900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8753500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8607800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8693100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8767900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9078500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8775100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8795500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8458200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5739600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5392100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5446800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5719200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5709100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6047600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4732600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4829900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3355300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2988600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2961400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2921600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2865600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2871100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2867100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2933900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2878600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2865600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2779300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>867000</v>
+      </c>
+      <c r="E72" s="3">
         <v>716900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>636600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>565500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>469800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>393800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>370400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>362000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>357300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>325900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>333500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>315900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>316600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>467800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>508000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>466800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>430700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>367500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>335200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>292100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>264800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>200900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>167200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>89200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>66600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>26200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3745500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3581700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3496500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3299500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3204500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3160900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3123500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2106100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2057700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2046900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2020700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2010600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1823200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1378500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1333100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1298200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1234200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1205100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1165300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1135300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1061400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1015500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>949400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>925500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>880700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>853600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E81" s="3">
         <v>80300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-151200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>63200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>28200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>64400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>33700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>78000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>40400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>22900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E83" s="3">
         <v>124800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>125200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>119200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>123500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>124100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>116500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>98700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>90500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>99300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>42700</v>
       </c>
       <c r="S83" s="3">
         <v>42700</v>
       </c>
       <c r="T83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="U83" s="3">
         <v>39700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>31400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>33500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>32700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>30400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E89" s="3">
         <v>232700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>108600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>315900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-114100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>236800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>122000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-108500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>197500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>107600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-132000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>606000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-140200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>73600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>190500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>32300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>137400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>197000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>99700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>127500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>49700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-52100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-33600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-26700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-45100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-120600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-312100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-199600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-60100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-56300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-65900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-79600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-81200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-89000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-112300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7504,8 +7737,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,94 +8004,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-171400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-277200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>185300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-163200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>164600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1394800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>87500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-471100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-54000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>163200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1462300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>149700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-156800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>25300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-74200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-157400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>62400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-42600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>65400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7934,90 +8182,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-315200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>48600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-718700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1062000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>PFGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14938600</v>
+      </c>
+      <c r="E8" s="3">
         <v>14865200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13771300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13898900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14719300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14590000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13079000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12838800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10386300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9304400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7202500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6845200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7046800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5774000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7000700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6068600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6243000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5899100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4689000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4615700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4539700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4594700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4349200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4311100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4364900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4428900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4235000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4051800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4046100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13275700</v>
+      </c>
+      <c r="E9" s="3">
         <v>13196900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12259400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12399300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13144200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13100300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11733400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11560000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9244000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8229400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6360900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6027100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6219400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5134900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6193200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5357400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5531600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5199000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4084300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4001100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3946100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3982900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3790500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3743500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3810200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3854000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3713600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3534600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3534800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1662900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1668300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1511900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1499600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1575100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1489700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1345600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1278800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1142300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1075000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>841600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>818100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>827400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>639100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>807500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>711200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>711400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>604700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>614600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>593600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>611800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>558700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>567600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>554700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>574900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>521400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>517200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>511300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1097,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,8 +1279,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,20 +1311,20 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>7100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1318,8 +1338,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1351,61 +1371,64 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E15" s="3">
         <v>24900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7200</v>
       </c>
       <c r="P15" s="3">
         <v>7200</v>
       </c>
       <c r="Q15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R15" s="3">
         <v>6700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4700</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1419,8 +1442,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14722400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14603400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13602500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13754900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14528100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14437200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13010400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12781000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10338100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9223800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7179100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6784300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7011000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5999600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7018100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5988100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6179500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5798600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4629800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4542700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4489100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4500900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4289100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4262000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4314400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4347500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4188300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4000500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4014500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E18" s="3">
         <v>261800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>168800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>144000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>191200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>152800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-225600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>59200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>73000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>93800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>49100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>50500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>81400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>46700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>51300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,453 +1714,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
       <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E21" s="3">
         <v>389600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>292500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>277100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>299500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>287500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>204000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>173100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>148200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>174100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-133700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>143100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>99900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>109400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>86300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>128300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>92100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>81500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>82200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>115000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>79600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>82200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E22" s="3">
         <v>56000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>17300</v>
       </c>
       <c r="T22" s="3">
         <v>17300</v>
       </c>
       <c r="U22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="V22" s="3">
         <v>16500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>15100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>14000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>13600</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E23" s="3">
         <v>206100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>129900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-262200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-60500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>35200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>78500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>44800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>36200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>67100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>32900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>38200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E24" s="3">
         <v>56000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-20300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>64500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-81300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>26700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E26" s="3">
         <v>150100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>95700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-151200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>43100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>115400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>40400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>20800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>22900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E27" s="3">
         <v>150100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>95700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-151200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-40200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>34800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>115400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>22600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>40400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>20800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>22900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2590,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2547,17 +2608,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>50400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-37400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2571,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
       <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E33" s="3">
         <v>150100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>80300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-151200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>63200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>28200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>64400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>33700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>78000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>22600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>40400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>22900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E35" s="3">
         <v>150100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>80300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-151200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>63200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>28200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>64400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>33700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>78000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>22600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>40400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>20800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>22900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,97 +3351,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>416700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>417200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>420700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>372100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>7500</v>
       </c>
       <c r="Y41" s="3">
         <v>7500</v>
       </c>
       <c r="Z41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AA41" s="3">
         <v>10100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>11700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3443,364 +3533,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2441000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2346000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2241800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2308400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2341400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2243300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2105300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2238000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1629600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1432800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1237400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1448200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1415100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1304400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1230100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1226900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1227300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1128500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1093200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1068800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1065600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1070300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1034900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1058600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1028500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1038000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>990100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1005800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3519700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3390000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3247300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3344300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3335000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3428600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3085300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3190900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2864000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1839400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1541800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1477700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1523900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1549400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1803100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1349400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1411200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1356900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1128300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1140900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1115500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1051900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1054400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1043400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1034000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1013300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1000200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>985100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>952800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E45" s="3">
         <v>227800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>231500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>215600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>213700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>240400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>226100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>205200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>211700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>79600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1140400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1115600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>71700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>70200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>78500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>33300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>35000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>34700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>32800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6172100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6071500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5833000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5807800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5867700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6022000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5568400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5511000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5348800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3580400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3179100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3221200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3468900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3453900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3585900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3732600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3769700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2670600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2325200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2293500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2263100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2203500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2183600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2140000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2132800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2084900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2080500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2019700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2002100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3879,195 +3984,204 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
+      <c r="AC47" s="3">
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3134400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2967600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2857400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2823800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2740700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2757900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2747500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2746300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2629300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2028300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2004700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1975600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1957600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1920200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1922400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1374800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1376300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>950500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>895900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>855600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>809400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>795500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>744300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>734900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>737600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>740700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>721600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>699800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>643900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3454000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3329400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3376400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3424100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3430600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3474800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3535300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3585100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3500600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2151100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2188100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2218700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2237000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2271600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2296800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>936100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>945400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>960100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>947200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>958400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>944400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>934300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>942900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>946900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>954300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>919700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>888500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>855800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E52" s="3">
         <v>130500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>122700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>133900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>129600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>123300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>128400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>72300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>54500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>59000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>70000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>60800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>58600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>58800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>55700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>57600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12903200</v>
+      </c>
+      <c r="E54" s="3">
         <v>12499000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12189500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12189600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12168600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12378000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11979600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11956400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11581700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7845700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7449800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7493700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7739900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7719700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7870800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6111100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6163000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4653500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4222800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4166500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4086900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4000900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3932500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3882600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3883300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3804100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3746300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3632900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3528100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2519700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2453500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2477400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2417500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2628600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2559500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2556300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2446400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2374100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1776500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1513100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1025200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1456900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1608000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1372900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1041500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1188700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1130800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1045000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>940600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1042300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>973000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1022500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>886900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>908700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>907100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>920700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>850400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>922900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E58" s="3">
         <v>102600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>94000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>88100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>83500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>79900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>76200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>149200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>144400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>137900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>16900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>12000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>11700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>11800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>11100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>850400</v>
+      </c>
+      <c r="E59" s="3">
         <v>997000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>885500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>890400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>861300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>993600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>871400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>872500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>815700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>702000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>753600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>865100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>686600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>872800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>644300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>757000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>612800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>550200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>536900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>504100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>422800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>488600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>417000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>386200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>454500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>464500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>442600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>389200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>327300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3479400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3553100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3456900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3396000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3573400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3633000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3503900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3393500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3261300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2527200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2312000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2039500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2287900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2618700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2045300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1823100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1823000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1699300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1598800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1458200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1474700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1470000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1447100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1280100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1375200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1383300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1375100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1250700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1252600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4198500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3907400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3928500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4058400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4034200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4275500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4083500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4228200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4024700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2495500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2395400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2746600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2752200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2435000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3368500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2352900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2360000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1331800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1168000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1284600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1224000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1175800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1246300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1406100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1351800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1285900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1302500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1341700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1264200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1293000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1222400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1238700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1160300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1170000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1187700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1173800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1172200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>716900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>684700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>679100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>655400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>633800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>556600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>646900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>324200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>221800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>218600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>222900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>219800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>177700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>180900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>206900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>209400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>188000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>186900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9074900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8753500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8607800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8693100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8767900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9078500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8775100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8795500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8458200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5739600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5392100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5446800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5719200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5709100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6047600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4732600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4829900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3355300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2988600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2961400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2921600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2865600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2871100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2867100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2933900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2878600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2865600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2779300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2707500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>987700</v>
+      </c>
+      <c r="E72" s="3">
         <v>867000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>716900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>636600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>565500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>469800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>393800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>370400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>362000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>357300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>325900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>333500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>315900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>316600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>467800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>508000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>466800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>430700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>367500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>335200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>292100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>264800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>200900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>167200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>89200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>66600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>26200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3828300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3745500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3581700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3496500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3299500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3204500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3160900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3123500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2106100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2057700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2046900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2020700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2010600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1823200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1378500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1333100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1298200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1234200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1205100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1165300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1135300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1061400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1015500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>949400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>925500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>880700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>853600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>820600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E81" s="3">
         <v>150100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>80300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-151200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>63200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>28200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>64400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>33700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>78000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>22600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>40400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>20800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>22900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E83" s="3">
         <v>127500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>124800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>125200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>119200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>123500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>124100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>116500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>98700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>90500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>99300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>42700</v>
       </c>
       <c r="T83" s="3">
         <v>42700</v>
       </c>
       <c r="U83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="V83" s="3">
         <v>39700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>31400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>33500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>32700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>30400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E89" s="3">
         <v>174900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>232700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>108600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>315900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-114100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>236800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>122000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-108500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>197500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>107600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-132000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>606000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-140200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>73600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>190500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>32300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>137400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>197000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>16000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>99700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>127500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>49700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-75200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-74700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-52100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-66900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-33600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-26700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-45100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-266900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-120600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-312100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1406600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2040800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-199600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-60100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-56300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-42100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-79600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-81200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-89000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-112300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-49500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7740,8 +7974,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,97 +8250,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-171400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-277200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>185300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-163200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>164600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1394800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>87500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-471100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>163200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1462300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>149700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-156800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>25300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-157400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>62400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-18000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-42600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>65400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8185,93 +8434,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-90400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-315200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-718700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1062000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2000</v>
       </c>
     </row>
